--- a/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01-JE-06_Jeu_etc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\GitHub\Projet\Sprint 1\Package 1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Dropbox\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="501">
   <si>
     <t>IdMode</t>
   </si>
@@ -1530,6 +1530,9 @@
   </si>
   <si>
     <t>Les jeux avec des beaux chapeaux</t>
+  </si>
+  <si>
+    <t>InfoSuppJeu</t>
   </si>
 </sst>
 </file>
@@ -4785,19 +4788,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="247.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" customWidth="1"/>
+    <col min="9" max="9" width="218.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>348</v>
       </c>
@@ -4822,17 +4826,17 @@
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>354</v>
       </c>
-      <c r="C2" t="s">
-        <v>358</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -4845,17 +4849,17 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>356</v>
       </c>
-      <c r="C3" t="s">
-        <v>357</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -4868,8 +4872,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4891,8 +4898,11 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4914,8 +4924,11 @@
       <c r="H5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4937,17 +4950,17 @@
       <c r="H6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>364</v>
       </c>
-      <c r="C7" t="s">
-        <v>367</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -4955,22 +4968,22 @@
         <v>368</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>365</v>
       </c>
-      <c r="C8" t="s">
-        <v>367</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -4978,22 +4991,22 @@
         <v>368</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>366</v>
       </c>
-      <c r="C9" t="s">
-        <v>367</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -5001,22 +5014,22 @@
         <v>368</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>369</v>
       </c>
-      <c r="C10" t="s">
-        <v>370</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -5029,17 +5042,17 @@
       <c r="H10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>384</v>
       </c>
-      <c r="C11" t="s">
-        <v>385</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -5052,17 +5065,17 @@
       <c r="H11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>374</v>
       </c>
-      <c r="C12" t="s">
-        <v>372</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -5075,17 +5088,17 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>375</v>
       </c>
-      <c r="C13" t="s">
-        <v>372</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -5098,17 +5111,17 @@
       <c r="H13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>376</v>
       </c>
-      <c r="C14" t="s">
-        <v>372</v>
-      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -5121,17 +5134,17 @@
       <c r="H14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>377</v>
       </c>
-      <c r="C15" t="s">
-        <v>380</v>
-      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -5144,17 +5157,17 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>378</v>
       </c>
-      <c r="C16" t="s">
-        <v>380</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
@@ -5167,17 +5180,17 @@
       <c r="H16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>379</v>
       </c>
-      <c r="C17" t="s">
-        <v>380</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -5189,6 +5202,9 @@
       </c>
       <c r="H17">
         <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
